--- a/download.xlsx
+++ b/download.xlsx
@@ -432,10 +432,10 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>-1000</v>
+        <v>-446</v>
       </c>
       <c r="F2">
-        <v>-100000</v>
+        <v>-44600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,10 +452,10 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>-1001</v>
+        <v>-447</v>
       </c>
       <c r="F3">
-        <v>-100100</v>
+        <v>-44700</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/download.xlsx
+++ b/download.xlsx
@@ -432,10 +432,10 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>-446</v>
+        <v>-1000</v>
       </c>
       <c r="F2">
-        <v>-44600</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,10 +452,10 @@
         <v>42</v>
       </c>
       <c r="E3">
-        <v>-447</v>
+        <v>-1001</v>
       </c>
       <c r="F3">
-        <v>-44700</v>
+        <v>-100100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
